--- a/Planificacion tablas/planificacion_tablas.xlsx
+++ b/Planificacion tablas/planificacion_tablas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Los Conci\Documents\GitHub\ProyectoUTN\Planificacion tablas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8B9E0B9-86F7-40C3-ADBD-BB4A74777D1C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81012D33-CD05-4E1E-8302-1DDC5E409A53}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2AB6E4E9-DD4F-45BD-9607-2EF14B83E8AA}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="87">
   <si>
     <t>DOMINIO</t>
   </si>
@@ -279,6 +279,15 @@
   </si>
   <si>
     <t>NroLicencia</t>
+  </si>
+  <si>
+    <t>IDINTERNO</t>
+  </si>
+  <si>
+    <t>FechaCreacion</t>
+  </si>
+  <si>
+    <t>FechaModificacion</t>
   </si>
 </sst>
 </file>
@@ -642,7 +651,7 @@
   <dimension ref="A1:R48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,10 +678,10 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>60</v>
@@ -1089,7 +1098,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1153,10 +1162,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9916AFD5-E5DE-49B0-8ABE-239EC1A39FF2}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1164,13 +1173,13 @@
     <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
     <col min="5" max="5" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>73</v>
       </c>
@@ -1192,13 +1201,25 @@
       <c r="G1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
         <v>76</v>
+      </c>
+      <c r="C2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" t="s">
+        <v>65</v>
       </c>
       <c r="E2" t="s">
         <v>79</v>
